--- a/pythons/new_neurons/logs/64bits.xlsx
+++ b/pythons/new_neurons/logs/64bits.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heriotwatt-my.sharepoint.com/personal/ct105_hw_ac_uk/Documents/HIOF_Master/Master_Thesis/NewLSTM/Codes/tf_implementations/pythons/new_neurons/logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="10_ncr:40000_{337ADE1D-AE61-457B-BAB7-DC4372D701F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C481473-6359-4D7E-A0B8-729B5143D1F6}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="10_ncr:40000_{337ADE1D-AE61-457B-BAB7-DC4372D701F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB6051F8-9729-44C0-9DC9-DF685A498D50}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="38400" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,13 +17,13 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId2"/>
-    <pivotCache cacheId="9" r:id="rId3"/>
-    <pivotCache cacheId="10" r:id="rId4"/>
-    <pivotCache cacheId="7" r:id="rId5"/>
-    <pivotCache cacheId="14" r:id="rId6"/>
-    <pivotCache cacheId="19" r:id="rId7"/>
-    <pivotCache cacheId="34" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId7"/>
+    <pivotCache cacheId="6" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="42">
   <si>
     <t>Average of acc</t>
   </si>
@@ -168,6 +168,9 @@
   <si>
     <t>fulla-node1</t>
   </si>
+  <si>
+    <t>is v20</t>
+  </si>
 </sst>
 </file>
 
@@ -236,27 +239,149 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="37">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000\ %"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000\ %"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000\ %"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -270,90 +395,6 @@
         <i val="0"/>
         <u/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -442,169 +483,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000\ %"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000\ %"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000\ %"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000\ %"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10772,7 +10650,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CDCC8DB9-11E8-42F6-8BC0-F82A3E0499CF}" name="PivotTable7" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CDCC8DB9-11E8-42F6-8BC0-F82A3E0499CF}" name="PivotTable7" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F37:J64" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
@@ -10921,21 +10799,21 @@
     <dataField name="Average of acc" fld="3" subtotal="average" baseField="1" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="23">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -10947,7 +10825,7 @@
     </format>
   </formats>
   <conditionalFormats count="3">
-    <conditionalFormat priority="5">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -11029,7 +10907,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="5">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -11084,7 +10962,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5D9039C1-2C16-4870-9E41-701FF4C7A5F3}" name="PivotTable6" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Versions">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5D9039C1-2C16-4870-9E41-701FF4C7A5F3}" name="PivotTable6" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Versions">
   <location ref="L37:P61" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
@@ -11224,7 +11102,7 @@
     <dataField name="Average of acc" fld="3" subtotal="average" baseField="1" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="34">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -11234,14 +11112,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -11250,7 +11128,7 @@
     </format>
   </formats>
   <conditionalFormats count="3">
-    <conditionalFormat priority="7">
+    <conditionalFormat priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -11326,7 +11204,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="2">
+    <conditionalFormat priority="7">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -11378,7 +11256,165 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69F5D3DD-3CDB-46FC-BE30-382501680E92}" name="PivotTable5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Versions">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06B30E88-5F8D-4272-9188-EE302D627B3D}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Versions">
+  <location ref="Z5:AC21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of acc" fld="3" subtotal="average" baseField="1" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69F5D3DD-3CDB-46FC-BE30-382501680E92}" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Versions">
   <location ref="F5:J32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
@@ -11527,21 +11563,21 @@
     <dataField name="Average of acc" fld="3" subtotal="average" baseField="1" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="36">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -11553,7 +11589,7 @@
     </format>
   </formats>
   <conditionalFormats count="3">
-    <conditionalFormat priority="9">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -11635,7 +11671,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="9">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -11689,8 +11725,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0046C861-A28D-4388-BA7B-90F8BE567F88}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="versions">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0046C861-A28D-4388-BA7B-90F8BE567F88}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="versions">
   <location ref="L5:P29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
@@ -11827,14 +11863,14 @@
     <dataField name="Average of acc" fld="3" subtotal="average" baseField="1" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="39">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -11843,7 +11879,7 @@
     </format>
   </formats>
   <conditionalFormats count="2">
-    <conditionalFormat priority="11">
+    <conditionalFormat priority="10">
       <pivotAreas count="1">
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -11857,7 +11893,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="10">
+    <conditionalFormat priority="11">
       <pivotAreas count="1">
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -11884,8 +11920,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable14" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Versions">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable14" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Versions">
   <location ref="U5:X22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
@@ -11989,14 +12025,14 @@
     <dataField name="Average of acc" fld="3" subtotal="average" baseField="1" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="45">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="17">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -12008,7 +12044,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="16">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -12020,7 +12056,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="15">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -12045,8 +12081,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable8" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Versions">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Versions">
   <location ref="R5:S28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
@@ -12167,7 +12203,7 @@
     <dataField name="Average of acc" fld="3" subtotal="average" baseField="1" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="50">
+    <format dxfId="25">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -12176,7 +12212,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="24">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -12185,7 +12221,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="23">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -12194,7 +12230,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -12203,7 +12239,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="21">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -12212,175 +12248,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06B30E88-5F8D-4272-9188-EE302D627B3D}" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Versions">
-  <location ref="Z5:AC21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="15">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of acc" fld="3" subtotal="average" baseField="1" baseItem="0" numFmtId="165"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="54">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="53">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="52">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="51">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="4"/>
-          </reference>
         </references>
       </pivotArea>
     </format>
@@ -12694,10 +12572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F2:AC64"/>
+  <dimension ref="E2:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12719,36 +12597,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F2" s="10">
+      <c r="F2" s="13">
         <v>44715</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="L2" s="10">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="L2" s="13">
         <v>44714</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="R2" s="10">
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="R2" s="13">
         <v>44713</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="U2" s="10">
+      <c r="S2" s="15"/>
+      <c r="U2" s="13">
         <v>44712</v>
       </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Z2" s="10">
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Z2" s="13">
         <v>44704</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
     </row>
     <row r="3" spans="6:29" x14ac:dyDescent="0.25">
       <c r="F3" s="14" t="s">
@@ -12765,22 +12643,22 @@
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="15"/>
-      <c r="U3" s="15" t="s">
+      <c r="S3" s="12"/>
+      <c r="U3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Z3" s="10" t="s">
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Z3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
     </row>
     <row r="5" spans="6:29" x14ac:dyDescent="0.25">
       <c r="F5" s="5" t="s">
@@ -12818,37 +12696,37 @@
       <c r="F6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="U6" s="5" t="s">
@@ -12883,13 +12761,13 @@
       <c r="G7" s="4">
         <v>0.96992250000000002</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <v>0.67584874999999989</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="11">
         <v>0.89967375000000005</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="11">
         <v>0.95846500000000001</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -12945,9 +12823,9 @@
       <c r="G8" s="4">
         <v>0.9705950000000001</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13">
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11">
         <v>0.95777624999999988</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -12991,9 +12869,9 @@
       <c r="G9" s="4">
         <v>0.97038625000000001</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11">
         <v>0.95275750000000015</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -13037,9 +12915,9 @@
       <c r="G10" s="4">
         <v>0.96771874999999996</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13">
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11">
         <v>0.95163875000000009</v>
       </c>
       <c r="L10" s="3" t="s">
@@ -13083,9 +12961,9 @@
       <c r="G11" s="4">
         <v>0.97008875000000017</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13">
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11">
         <v>0.95355374999999998</v>
       </c>
       <c r="L11" s="3" t="s">
@@ -13129,9 +13007,9 @@
       <c r="G12" s="4">
         <v>0.96663749999999993</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13">
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11">
         <v>0.95816499999999993</v>
       </c>
       <c r="L12" s="3" t="s">
@@ -13173,9 +13051,9 @@
       <c r="G13" s="4">
         <v>0.96649125000000002</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13">
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11">
         <v>0.95360124999999996</v>
       </c>
       <c r="L13" s="3" t="s">
@@ -13217,9 +13095,9 @@
       <c r="G14" s="4">
         <v>0.9654299999999999</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13">
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11">
         <v>0.95487125000000006</v>
       </c>
       <c r="L14" s="3" t="s">
@@ -13261,9 +13139,9 @@
       <c r="G15" s="4">
         <v>0.96551000000000009</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13">
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11">
         <v>0.95040499999999994</v>
       </c>
       <c r="L15" s="3" t="s">
@@ -13305,9 +13183,9 @@
       <c r="G16" s="4">
         <v>0.9683449999999999</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13">
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11">
         <v>0.95466375000000003</v>
       </c>
       <c r="L16" s="3" t="s">
@@ -13342,16 +13220,16 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:29" x14ac:dyDescent="0.25">
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="4">
         <v>0.96805249999999998</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13">
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11">
         <v>0.95463500000000012</v>
       </c>
       <c r="L17" s="3" t="s">
@@ -13386,16 +13264,16 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:29" x14ac:dyDescent="0.25">
       <c r="F18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="4">
         <v>0.96450374999999999</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13">
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11">
         <v>0.95508874999999993</v>
       </c>
       <c r="L18" s="3" t="s">
@@ -13430,16 +13308,16 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:29" x14ac:dyDescent="0.25">
       <c r="F19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="4">
         <v>0.79403999999999997</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13">
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11">
         <v>0.95101499999999994</v>
       </c>
       <c r="L19" s="3" t="s">
@@ -13474,16 +13352,16 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:29" x14ac:dyDescent="0.25">
       <c r="F20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="4">
         <v>0.94117125000000001</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
       <c r="L20" s="3" t="s">
         <v>15</v>
       </c>
@@ -13516,16 +13394,16 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:29" x14ac:dyDescent="0.25">
       <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="4">
         <v>0.87901250000000009</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
@@ -13562,16 +13440,16 @@
         <v>0.89834124999999998</v>
       </c>
     </row>
-    <row r="22" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:29" x14ac:dyDescent="0.25">
       <c r="F22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="4">
         <v>0.95856624999999995</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
       <c r="L22" s="3" t="s">
         <v>17</v>
       </c>
@@ -13600,16 +13478,16 @@
         <v>0.89936625000000003</v>
       </c>
     </row>
-    <row r="23" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:29" x14ac:dyDescent="0.25">
       <c r="F23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="4">
         <v>0.97133999999999998</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
       <c r="L23" s="3" t="s">
         <v>18</v>
       </c>
@@ -13626,16 +13504,16 @@
         <v>0.96251500000000001</v>
       </c>
     </row>
-    <row r="24" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:29" x14ac:dyDescent="0.25">
       <c r="F24" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="4">
         <v>0.9640225</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
       <c r="L24" s="3" t="s">
         <v>19</v>
       </c>
@@ -13652,16 +13530,16 @@
         <v>0.96517500000000001</v>
       </c>
     </row>
-    <row r="25" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:29" x14ac:dyDescent="0.25">
       <c r="F25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="4">
         <v>0.96675624999999998</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
       <c r="L25" s="3" t="s">
         <v>20</v>
       </c>
@@ -13678,16 +13556,16 @@
         <v>0.96992250000000002</v>
       </c>
     </row>
-    <row r="26" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:29" x14ac:dyDescent="0.25">
       <c r="F26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="4">
         <v>0.9702225000000001</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
       <c r="L26" s="3" t="s">
         <v>21</v>
       </c>
@@ -13704,16 +13582,16 @@
         <v>0.97179375000000001</v>
       </c>
     </row>
-    <row r="27" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:29" x14ac:dyDescent="0.25">
       <c r="F27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="4">
         <v>0.97113874999999994</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
       <c r="L27" s="3" t="s">
         <v>22</v>
       </c>
@@ -13730,16 +13608,16 @@
         <v>0.93311875000000022</v>
       </c>
     </row>
-    <row r="28" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:29" x14ac:dyDescent="0.25">
       <c r="F28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G28" s="4">
         <v>0.92081124999999986</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
       <c r="L28" s="3" t="s">
         <v>23</v>
       </c>
@@ -13756,16 +13634,16 @@
         <v>0.95215267857142816</v>
       </c>
     </row>
-    <row r="29" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:29" x14ac:dyDescent="0.25">
       <c r="F29" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G29" s="4">
         <v>0.97007624999999997</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
@@ -13782,42 +13660,45 @@
         <v>0.95642349999999965</v>
       </c>
     </row>
-    <row r="30" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
       <c r="F30" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G30" s="4">
         <v>0.97099500000000005</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:29" x14ac:dyDescent="0.25">
       <c r="F31" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G31" s="4">
         <v>0.97082374999999999</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:29" x14ac:dyDescent="0.25">
       <c r="F32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="11">
         <v>0.95450629999999992</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="11">
         <v>0.67584874999999989</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="11">
         <v>0.89967375000000005</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="11">
         <v>0.95435663461538489</v>
       </c>
     </row>
@@ -13855,31 +13736,31 @@
       <c r="F38" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M38" s="12" t="s">
+      <c r="M38" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N38" s="12" t="s">
+      <c r="N38" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O38" s="12" t="s">
+      <c r="O38" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P38" s="12" t="s">
+      <c r="P38" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -13890,13 +13771,13 @@
       <c r="G39" s="4">
         <v>0.97141250000000001</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="11">
         <v>0.59996125</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="11">
         <v>0.97291125000000001</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="11">
         <v>0.95664375000000001</v>
       </c>
       <c r="L39" s="3" t="s">
@@ -13905,13 +13786,13 @@
       <c r="M39" s="4">
         <v>0.97174874999999994</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N39" s="11">
         <v>0.38433249999999997</v>
       </c>
-      <c r="O39" s="13">
+      <c r="O39" s="11">
         <v>0.97341874999999989</v>
       </c>
-      <c r="P39" s="13">
+      <c r="P39" s="11">
         <v>0.95655999999999997</v>
       </c>
     </row>
@@ -13922,9 +13803,9 @@
       <c r="G40" s="4">
         <v>0.97033124999999998</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13">
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11">
         <v>0.95642374999999991</v>
       </c>
       <c r="L40" s="3" t="s">
@@ -13933,9 +13814,9 @@
       <c r="M40" s="4">
         <v>0.97050500000000006</v>
       </c>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13">
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11">
         <v>0.95784999999999987</v>
       </c>
     </row>
@@ -13946,9 +13827,9 @@
       <c r="G41" s="4">
         <v>0.97079375000000012</v>
       </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13">
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11">
         <v>0.95170375000000007</v>
       </c>
       <c r="L41" s="3" t="s">
@@ -13957,9 +13838,9 @@
       <c r="M41" s="4">
         <v>0.97108375000000002</v>
       </c>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13">
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11">
         <v>0.95546249999999999</v>
       </c>
     </row>
@@ -13970,9 +13851,9 @@
       <c r="G42" s="4">
         <v>0.96866375000000005</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13">
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11">
         <v>0.95288250000000008</v>
       </c>
       <c r="L42" s="3" t="s">
@@ -13981,9 +13862,9 @@
       <c r="M42" s="4">
         <v>0.96818749999999987</v>
       </c>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13">
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11">
         <v>0.95410374999999981</v>
       </c>
     </row>
@@ -13994,9 +13875,9 @@
       <c r="G43" s="4">
         <v>0.97123124999999988</v>
       </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13">
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11">
         <v>0.95440874999999992</v>
       </c>
       <c r="L43" s="3" t="s">
@@ -14005,9 +13886,9 @@
       <c r="M43" s="4">
         <v>0.97131374999999998</v>
       </c>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13">
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11">
         <v>0.95418999999999987</v>
       </c>
     </row>
@@ -14018,9 +13899,9 @@
       <c r="G44" s="4">
         <v>0.96613874999999994</v>
       </c>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13">
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11">
         <v>0.95830375000000001</v>
       </c>
       <c r="L44" s="3" t="s">
@@ -14029,9 +13910,9 @@
       <c r="M44" s="4">
         <v>0.96547375000000002</v>
       </c>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13">
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11">
         <v>0.95816499999999993</v>
       </c>
     </row>
@@ -14042,9 +13923,9 @@
       <c r="G45" s="4">
         <v>0.96699250000000003</v>
       </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13">
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11">
         <v>0.95471499999999998</v>
       </c>
       <c r="L45" s="3" t="s">
@@ -14053,9 +13934,9 @@
       <c r="M45" s="4">
         <v>0.96697374999999997</v>
       </c>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13">
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11">
         <v>0.95360124999999996</v>
       </c>
     </row>
@@ -14066,9 +13947,9 @@
       <c r="G46" s="4">
         <v>0.96604625</v>
       </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13">
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11">
         <v>0.95452499999999996</v>
       </c>
       <c r="L46" s="3" t="s">
@@ -14077,9 +13958,9 @@
       <c r="M46" s="4">
         <v>0.96539374999999983</v>
       </c>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13">
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11">
         <v>0.95487125000000006</v>
       </c>
     </row>
@@ -14090,9 +13971,9 @@
       <c r="G47" s="4">
         <v>0.96592125000000006</v>
       </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13">
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11">
         <v>0.95003499999999996</v>
       </c>
       <c r="L47" s="3" t="s">
@@ -14101,9 +13982,9 @@
       <c r="M47" s="4">
         <v>0.96784249999999983</v>
       </c>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13">
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11">
         <v>0.95040499999999994</v>
       </c>
     </row>
@@ -14114,9 +13995,9 @@
       <c r="G48" s="4">
         <v>0.96827874999999985</v>
       </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13">
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11">
         <v>0.95473624999999995</v>
       </c>
       <c r="L48" s="3" t="s">
@@ -14125,22 +14006,22 @@
       <c r="M48" s="4">
         <v>0.96818875000000004</v>
       </c>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13">
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11">
         <v>0.95466375000000003</v>
       </c>
     </row>
-    <row r="49" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="4">
         <v>0.96916750000000007</v>
       </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13">
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11">
         <v>0.95324625000000007</v>
       </c>
       <c r="L49" s="3" t="s">
@@ -14149,22 +14030,22 @@
       <c r="M49" s="4">
         <v>0.96762624999999991</v>
       </c>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13">
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11">
         <v>0.95463500000000012</v>
       </c>
     </row>
-    <row r="50" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F50" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G50" s="4">
         <v>0.96531999999999996</v>
       </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13">
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11">
         <v>0.95461625000000006</v>
       </c>
       <c r="L50" s="3" t="s">
@@ -14173,22 +14054,22 @@
       <c r="M50" s="4">
         <v>0.96256249999999999</v>
       </c>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13">
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11">
         <v>0.95508874999999993</v>
       </c>
     </row>
-    <row r="51" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F51" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G51" s="4">
         <v>0.81984000000000001</v>
       </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13">
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11">
         <v>0.95159500000000008</v>
       </c>
       <c r="L51" s="3" t="s">
@@ -14197,254 +14078,257 @@
       <c r="M51" s="4">
         <v>0.76721125000000001</v>
       </c>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13">
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11">
         <v>0.95101499999999994</v>
       </c>
     </row>
-    <row r="52" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F52" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="4">
         <v>0.93762250000000003</v>
       </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
       <c r="L52" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M52" s="4">
         <v>0.87148749999999997</v>
       </c>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
     </row>
-    <row r="53" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F53" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="4">
         <v>0.93827874999999994</v>
       </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
       <c r="L53" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M53" s="4">
         <v>0.85353999999999997</v>
       </c>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
     </row>
-    <row r="54" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F54" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G54" s="4">
         <v>0.95783125000000002</v>
       </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
       <c r="L54" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M54" s="4">
         <v>0.95709375000000008</v>
       </c>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
     </row>
-    <row r="55" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G55" s="4">
         <v>0.97188374999999994</v>
       </c>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
       <c r="L55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M55" s="4">
         <v>0.96978750000000002</v>
       </c>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
     </row>
-    <row r="56" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F56" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G56" s="4">
         <v>0.96260500000000015</v>
       </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
       <c r="L56" s="3" t="s">
         <v>19</v>
       </c>
       <c r="M56" s="4">
         <v>0.96187</v>
       </c>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
     </row>
-    <row r="57" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F57" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G57" s="4">
         <v>0.96542874999999995</v>
       </c>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
       <c r="L57" s="3" t="s">
         <v>20</v>
       </c>
       <c r="M57" s="4">
         <v>0.96394999999999997</v>
       </c>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
     </row>
-    <row r="58" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F58" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G58" s="4">
         <v>0.96855249999999993</v>
       </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
       <c r="L58" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M58" s="4">
         <v>0.96960625</v>
       </c>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
     </row>
-    <row r="59" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F59" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G59" s="4">
         <v>0.97149249999999998</v>
       </c>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
       <c r="L59" s="3" t="s">
         <v>22</v>
       </c>
       <c r="M59" s="4">
         <v>0.96947875000000006</v>
       </c>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
     </row>
-    <row r="60" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F60" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G60" s="4">
         <v>0.91889374999999984</v>
       </c>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
       <c r="L60" s="3" t="s">
         <v>23</v>
       </c>
       <c r="M60" s="4">
         <v>0.93064124999999998</v>
       </c>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
     </row>
-    <row r="61" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F61" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G61" s="4">
         <v>0.97091375000000002</v>
       </c>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
       <c r="L61" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M61" s="13">
+      <c r="M61" s="11">
         <v>0.94688937500000026</v>
       </c>
-      <c r="N61" s="13">
+      <c r="N61" s="11">
         <v>0.38433249999999997</v>
       </c>
-      <c r="O61" s="13">
+      <c r="O61" s="11">
         <v>0.97341874999999989</v>
       </c>
-      <c r="P61" s="13">
+      <c r="P61" s="11">
         <v>0.95464796875000024</v>
       </c>
     </row>
-    <row r="62" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>41</v>
+      </c>
       <c r="F62" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G62" s="4">
         <v>0.97052125000000011</v>
       </c>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
     </row>
-    <row r="63" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F63" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G63" s="4">
         <v>0.9710112500000001</v>
       </c>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
     </row>
-    <row r="64" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F64" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64" s="11">
         <v>0.95780690000000035</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64" s="11">
         <v>0.59996125</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I64" s="11">
         <v>0.97291125000000001</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J64" s="11">
         <v>0.95414115384615361</v>
       </c>
     </row>
@@ -14464,57 +14348,57 @@
     <mergeCell ref="L2:P2"/>
   </mergeCells>
   <conditionalFormatting pivot="1" sqref="M7:M29">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="11" operator="greaterThan">
       <formula>0.97</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="M7:M29">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="G7:G31">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="greaterThan">
       <formula>0.97</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="G7:G31">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="M39:M60">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="7" operator="greaterThan">
       <formula>0.97</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="M39:M60">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="G39:G63">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="greaterThan">
       <formula>0.97</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="G39:G63">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="G39:G63">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="greaterThanOrEqual">
       <formula>$G$39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="M39:M60">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="greaterThanOrEqual">
       <formula>$M$39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="G7:G31">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThanOrEqual">
       <formula>$G$7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14523,21 +14407,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008E72712FC43AF4FB8CB3F801234413A" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9a3e16380208f4e57a283f9d20fae7f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="77c7797c-dc21-4835-9046-f8ce0ceb4563" xmlns:ns4="28ea038a-ff0c-40e4-b2c4-b2142cc49eaf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fe08d132a34ff9d9fc922db329129098" ns3:_="" ns4:_="">
     <xsd:import namespace="77c7797c-dc21-4835-9046-f8ce0ceb4563"/>
@@ -14760,10 +14629,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C3FD714-5CF1-4376-8C13-31A5EDDF4C79}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57BB855D-D710-40DC-8EAE-F8AE34067032}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="77c7797c-dc21-4835-9046-f8ce0ceb4563"/>
+    <ds:schemaRef ds:uri="28ea038a-ff0c-40e4-b2c4-b2142cc49eaf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14786,20 +14681,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57BB855D-D710-40DC-8EAE-F8AE34067032}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C3FD714-5CF1-4376-8C13-31A5EDDF4C79}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="77c7797c-dc21-4835-9046-f8ce0ceb4563"/>
-    <ds:schemaRef ds:uri="28ea038a-ff0c-40e4-b2c4-b2142cc49eaf"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>